--- a/data/AMF Data_Maria.xlsx
+++ b/data/AMF Data_Maria.xlsx
@@ -894,6 +894,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -906,7 +907,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2333,7 +2333,7 @@
       <c r="M1" t="s">
         <v>108</v>
       </c>
-      <c r="N1" s="69" t="s">
+      <c r="N1" s="65" t="s">
         <v>109</v>
       </c>
       <c r="O1" t="s">
@@ -2342,7 +2342,7 @@
       <c r="P1" t="s">
         <v>111</v>
       </c>
-      <c r="Q1" s="69" t="s">
+      <c r="Q1" s="65" t="s">
         <v>112</v>
       </c>
       <c r="R1" t="s">
@@ -2363,10 +2363,10 @@
       <c r="W1" t="s">
         <v>118</v>
       </c>
-      <c r="X1" s="69" t="s">
+      <c r="X1" s="65" t="s">
         <v>119</v>
       </c>
-      <c r="Y1" s="69" t="s">
+      <c r="Y1" s="65" t="s">
         <v>120</v>
       </c>
       <c r="Z1" t="s">
@@ -2378,7 +2378,7 @@
       <c r="AB1" t="s">
         <v>123</v>
       </c>
-      <c r="AC1" s="69" t="s">
+      <c r="AC1" s="65" t="s">
         <v>124</v>
       </c>
       <c r="AD1" t="s">
@@ -2396,7 +2396,7 @@
       <c r="AH1" t="s">
         <v>129</v>
       </c>
-      <c r="AI1" s="69" t="s">
+      <c r="AI1" s="65" t="s">
         <v>130</v>
       </c>
       <c r="AJ1" t="s">
@@ -2473,41 +2473,41 @@
     <row r="3" spans="1:42" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21"/>
       <c r="B3" s="62"/>
-      <c r="G3" s="66" t="s">
+      <c r="G3" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66" t="s">
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66" t="s">
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66" t="s">
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="66" t="s">
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
+      <c r="U3" s="67"/>
+      <c r="V3" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="W3" s="66"/>
-      <c r="X3" s="66"/>
-      <c r="Y3" s="66"/>
-      <c r="Z3" s="66"/>
-      <c r="AA3" s="66" t="s">
+      <c r="W3" s="67"/>
+      <c r="X3" s="67"/>
+      <c r="Y3" s="67"/>
+      <c r="Z3" s="67"/>
+      <c r="AA3" s="67" t="s">
         <v>100</v>
       </c>
-      <c r="AB3" s="66"/>
-      <c r="AC3" s="66"/>
+      <c r="AB3" s="67"/>
+      <c r="AC3" s="67"/>
       <c r="AD3" s="62"/>
       <c r="AE3" s="30"/>
       <c r="AF3" s="30"/>
@@ -2653,14 +2653,14 @@
       <c r="AD5" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="AE5" s="65" t="s">
+      <c r="AE5" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="AF5" s="65"/>
-      <c r="AG5" s="65" t="s">
+      <c r="AF5" s="66"/>
+      <c r="AG5" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="AH5" s="65"/>
+      <c r="AH5" s="66"/>
       <c r="AI5" s="57" t="s">
         <v>81</v>
       </c>
@@ -8304,7 +8304,7 @@
   <dimension ref="A1:CH19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="BN1" workbookViewId="0">
-      <selection activeCell="BZ1" sqref="BZ1"/>
+      <selection activeCell="CD4" sqref="CD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8387,7 +8387,7 @@
       <c r="AB1" t="s">
         <v>108</v>
       </c>
-      <c r="AC1" s="69" t="s">
+      <c r="AC1" s="65" t="s">
         <v>109</v>
       </c>
       <c r="AD1" t="s">
@@ -8396,7 +8396,7 @@
       <c r="AE1" t="s">
         <v>111</v>
       </c>
-      <c r="AF1" s="69" t="s">
+      <c r="AF1" s="65" t="s">
         <v>112</v>
       </c>
       <c r="AG1" t="s">
@@ -8417,10 +8417,10 @@
       <c r="AL1" t="s">
         <v>118</v>
       </c>
-      <c r="AM1" s="69" t="s">
+      <c r="AM1" s="65" t="s">
         <v>119</v>
       </c>
-      <c r="AN1" s="69" t="s">
+      <c r="AN1" s="65" t="s">
         <v>120</v>
       </c>
       <c r="AO1" t="s">
@@ -8432,43 +8432,43 @@
       <c r="AQ1" t="s">
         <v>123</v>
       </c>
-      <c r="AR1" s="69" t="s">
+      <c r="AR1" s="65" t="s">
         <v>124</v>
       </c>
       <c r="AS1" t="s">
         <v>125</v>
       </c>
-      <c r="AT1" s="69" t="s">
+      <c r="AT1" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="AU1" s="69" t="s">
+      <c r="AU1" s="65" t="s">
         <v>139</v>
       </c>
-      <c r="AV1" s="69" t="s">
+      <c r="AV1" s="65" t="s">
         <v>140</v>
       </c>
-      <c r="AW1" s="69" t="s">
+      <c r="AW1" s="65" t="s">
         <v>141</v>
       </c>
-      <c r="AX1" s="69" t="s">
+      <c r="AX1" s="65" t="s">
         <v>142</v>
       </c>
-      <c r="AY1" s="69" t="s">
+      <c r="AY1" s="65" t="s">
         <v>143</v>
       </c>
-      <c r="AZ1" s="69" t="s">
+      <c r="AZ1" s="65" t="s">
         <v>144</v>
       </c>
-      <c r="BA1" s="69" t="s">
+      <c r="BA1" s="65" t="s">
         <v>146</v>
       </c>
-      <c r="BB1" s="69" t="s">
+      <c r="BB1" s="65" t="s">
         <v>145</v>
       </c>
-      <c r="BC1" s="69" t="s">
+      <c r="BC1" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="BD1" s="69" t="s">
+      <c r="BD1" s="65" t="s">
         <v>130</v>
       </c>
       <c r="BE1" t="s">
@@ -8564,12 +8564,12 @@
     </row>
     <row r="2" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
       <c r="F2" s="36"/>
       <c r="G2" s="37"/>
       <c r="H2" s="37"/>
@@ -8663,41 +8663,41 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="19"/>
-      <c r="V3" s="66" t="s">
+      <c r="V3" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="W3" s="66"/>
-      <c r="X3" s="66"/>
-      <c r="Y3" s="66"/>
-      <c r="Z3" s="66"/>
-      <c r="AA3" s="66" t="s">
+      <c r="W3" s="67"/>
+      <c r="X3" s="67"/>
+      <c r="Y3" s="67"/>
+      <c r="Z3" s="67"/>
+      <c r="AA3" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="AB3" s="66"/>
-      <c r="AC3" s="66"/>
-      <c r="AD3" s="66" t="s">
+      <c r="AB3" s="67"/>
+      <c r="AC3" s="67"/>
+      <c r="AD3" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="AE3" s="66"/>
-      <c r="AF3" s="66"/>
-      <c r="AG3" s="66" t="s">
+      <c r="AE3" s="67"/>
+      <c r="AF3" s="67"/>
+      <c r="AG3" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="AH3" s="66"/>
-      <c r="AI3" s="66"/>
-      <c r="AJ3" s="66"/>
-      <c r="AK3" s="66" t="s">
+      <c r="AH3" s="67"/>
+      <c r="AI3" s="67"/>
+      <c r="AJ3" s="67"/>
+      <c r="AK3" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="AL3" s="66"/>
-      <c r="AM3" s="66"/>
-      <c r="AN3" s="66"/>
-      <c r="AO3" s="66"/>
-      <c r="AP3" s="66" t="s">
+      <c r="AL3" s="67"/>
+      <c r="AM3" s="67"/>
+      <c r="AN3" s="67"/>
+      <c r="AO3" s="67"/>
+      <c r="AP3" s="67" t="s">
         <v>100</v>
       </c>
-      <c r="AQ3" s="66"/>
-      <c r="AR3" s="66"/>
+      <c r="AQ3" s="67"/>
+      <c r="AR3" s="67"/>
       <c r="AT3" s="3" t="s">
         <v>1</v>
       </c>
@@ -8742,14 +8742,14 @@
       <c r="BY3" s="7"/>
       <c r="BZ3" s="7"/>
       <c r="CA3" s="7"/>
-      <c r="CB3" s="68" t="s">
+      <c r="CB3" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="CC3" s="68"/>
-      <c r="CD3" s="68" t="s">
+      <c r="CC3" s="69"/>
+      <c r="CD3" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="CE3" s="68"/>
+      <c r="CE3" s="69"/>
     </row>
     <row r="4" spans="1:86" ht="288" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
@@ -12692,21 +12692,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BC3C2C28A2D7614183C9FDD520FB214B" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3667dc5820df27cf226d710cf5e8d64f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="01213baf-5598-4061-88c0-ad55b429654b" xmlns:ns4="e4a8d825-5ea8-45dd-9df3-7486e149841d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8d9fe9d8111d296cd2e60b7a383c000f" ns3:_="" ns4:_="">
     <xsd:import namespace="01213baf-5598-4061-88c0-ad55b429654b"/>
@@ -12935,32 +12920,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F67B14B-E4B0-41A7-AAEB-FCB07CECCA2A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e4a8d825-5ea8-45dd-9df3-7486e149841d"/>
-    <ds:schemaRef ds:uri="01213baf-5598-4061-88c0-ad55b429654b"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C3AF317-7A4D-48DC-A27A-5AD0A539A47B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBEF331E-3646-49BC-9C26-5DF12EBA315E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12977,4 +12952,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C3AF317-7A4D-48DC-A27A-5AD0A539A47B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F67B14B-E4B0-41A7-AAEB-FCB07CECCA2A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="e4a8d825-5ea8-45dd-9df3-7486e149841d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="01213baf-5598-4061-88c0-ad55b429654b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>